--- a/import bills test case.xlsx
+++ b/import bills test case.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trade_Finance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E833A6-9E9A-4BFD-BEC9-84D584CC4C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA48BA0A-1BAF-4380-9DD7-07AB351A7EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <r>
       <t>System Name</t>
@@ -151,6 +151,29 @@
   </si>
   <si>
     <t>check it, no correct swift and no correct voucher.</t>
+  </si>
+  <si>
+    <t>Import bills enquiry</t>
+  </si>
+  <si>
+    <t>this event is not complete, please check it.</t>
+  </si>
+  <si>
+    <t>14/2/2024</t>
+  </si>
+  <si>
+    <t>advise of payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in this event, MT400 message type is needed as well as MT202 &amp; MT103.
+</t>
+  </si>
+  <si>
+    <t>should be available in primary details event in message type field.
+And for this message type we need 71A field.</t>
+  </si>
+  <si>
+    <t>intermediary Bank should be exsited and optional.</t>
   </si>
 </sst>
 </file>
@@ -662,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -673,7 +696,7 @@
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" customWidth="1"/>
     <col min="3" max="3" width="44.7109375" customWidth="1"/>
-    <col min="4" max="4" width="52.140625" customWidth="1"/>
+    <col min="4" max="4" width="56.140625" customWidth="1"/>
     <col min="5" max="5" width="29.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="36.28515625" customWidth="1"/>
   </cols>
@@ -762,7 +785,7 @@
         <v>45384</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="45">
       <c r="A7">
         <v>3</v>
       </c>
@@ -772,8 +795,8 @@
       <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
+      <c r="D7" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E7" s="2">
         <v>45384</v>
@@ -913,6 +936,57 @@
       </c>
       <c r="E15" s="2">
         <v>45598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/import bills test case.xlsx
+++ b/import bills test case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA48BA0A-1BAF-4380-9DD7-07AB351A7EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0353D6-8D41-4CB8-B4C9-1C3652324D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <r>
       <t>System Name</t>
@@ -174,6 +174,15 @@
   </si>
   <si>
     <t>intermediary Bank should be exsited and optional.</t>
+  </si>
+  <si>
+    <t>18-2-2024</t>
+  </si>
+  <si>
+    <t>custom certificate security charge should be optional (and its percentage should be configurable).</t>
+  </si>
+  <si>
+    <t>the case in which delivery against= free of payment then the field 'from event ' should be disabled because we don't have payment absolutely.</t>
   </si>
 </sst>
 </file>
@@ -685,17 +694,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
     <col min="4" max="4" width="56.140625" customWidth="1"/>
     <col min="5" max="5" width="29.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="36.28515625" customWidth="1"/>
@@ -747,7 +756,7 @@
       <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -987,6 +996,37 @@
       </c>
       <c r="E18" s="2" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
